--- a/df_holings2.xlsx
+++ b/df_holings2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,1620 +463,1134 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Microsoft Corp</t>
+          <t>Moderna Inc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.8M</t>
+          <t>7.1M</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$22.0B</t>
+          <t>$865.4M</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>KDP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>Keurig Dr Pepper Inc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7.95%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>111.9M</t>
+          <t>26.0M</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$20.4B</t>
+          <t>$877.7M</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>AEP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NVIDIA Corp</t>
+          <t>American Electric Power Co Inc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6.39%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.1M</t>
+          <t>9.8M</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$16.4B</t>
+          <t>$884.7M</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>ADSK</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amazon.com Inc</t>
+          <t>Autodesk Inc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.53%</t>
+          <t>0.33%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>75.2M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$14.2B</t>
+          <t>$859.0M</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>FTNT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Meta Platforms Inc Class A</t>
+          <t>Fortinet Inc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.63%</t>
+          <t>0.33%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.4M</t>
+          <t>14.3M</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$11.9B</t>
+          <t>$848.4M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>DASH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Broadcom Inc</t>
+          <t>DoorDash Inc Ordinary Shares - Class A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.40%</t>
+          <t>0.32%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.7M</t>
+          <t>7.0M</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$11.3B</t>
+          <t>$813.7M</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>KHC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alphabet Inc Class A</t>
+          <t>The Kraft Heinz Co</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.85%</t>
+          <t>0.32%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>42.7M</t>
+          <t>22.7M</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$7.3B</t>
+          <t>$812.8M</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>AZN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alphabet Inc Class C</t>
+          <t>AstraZeneca PLC ADR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.77%</t>
+          <t>0.32%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>41.1M</t>
+          <t>10.9M</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$7.1B</t>
+          <t>$831.5M</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Costco Wholesale Corp</t>
+          <t>Ross Stores Inc</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>0.32%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.3M</t>
+          <t>6.3M</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$6.4B</t>
+          <t>$828.8M</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>PAYX</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tesla Inc</t>
+          <t>Paychex Inc</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.42%</t>
+          <t>0.32%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>34.9M</t>
+          <t>6.8M</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$6.2B</t>
+          <t>$823.1M</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>LULU</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Netflix Inc</t>
+          <t>Lululemon Athletica Inc</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.91%</t>
+          <t>0.31%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.1M</t>
+          <t>2.3M</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>$4.9B</t>
+          <t>$792.5M</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>ODFL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Advanced Micro Devices Inc</t>
+          <t>Old Dominion Freight Line Inc Ordinary S...</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.82%</t>
+          <t>0.29%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30.2M</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>$4.7B</t>
+          <t>$752.6M</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>IDXX</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PepsiCo Inc</t>
+          <t>IDEXX Laboratories Inc</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>0.29%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25.7M</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>$4.6B</t>
+          <t>$751.9M</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Adobe Inc</t>
+          <t>The Trade Desk Inc Class A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.62%</t>
+          <t>0.29%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.5M</t>
+          <t>8.3M</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>$4.2B</t>
+          <t>$746.3M</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Linde PLC</t>
+          <t>Exelon Corp</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.51%</t>
+          <t>0.28%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.0M</t>
+          <t>18.7M</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>$3.9B</t>
+          <t>$708.9M</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>FAST</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Qualcomm Inc</t>
+          <t>Fastenal Co</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.47%</t>
+          <t>0.28%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20.9M</t>
+          <t>10.7M</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>$3.8B</t>
+          <t>$711.0M</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>CSGP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T-Mobile US Inc</t>
+          <t>CoStar Group Inc</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.40%</t>
+          <t>0.28%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22.2M</t>
+          <t>7.6M</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>$3.6B</t>
+          <t>$706.5M</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>CHTR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cisco Systems Inc</t>
+          <t>Charter Communications Inc Class A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.40%</t>
+          <t>0.28%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>75.8M</t>
+          <t>2.7M</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>$3.6B</t>
+          <t>$728.2M</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>GEHC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Intuit Inc</t>
+          <t>GE HealthCare Technologies Inc Common St...</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>0.27%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.2M</t>
+          <t>8.5M</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>$3.4B</t>
+          <t>$693.7M</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>FANG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Applied Materials Inc</t>
+          <t>Diamondback Energy Inc</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>0.26%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15.5M</t>
+          <t>3.3M</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>$3.2B</t>
+          <t>$680.0M</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>VRSK</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Texas Instruments Inc</t>
+          <t>Verisk Analytics Inc</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.21%</t>
+          <t>0.26%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17.0M</t>
+          <t>2.7M</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>$3.1B</t>
+          <t>$662.6M</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AMGN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amgen Inc</t>
+          <t>Electronic Arts Inc</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.17%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10.0M</t>
+          <t>5.0M</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>$3.0B</t>
+          <t>$651.4M</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CMCSA</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Comcast Corp Class A</t>
+          <t>Datadog Inc Class A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.11%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>74.1M</t>
+          <t>5.7M</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>$2.9B</t>
+          <t>$644.1M</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>CTSH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Intuitive Surgical Inc</t>
+          <t>Cognizant Technology Solutions Corp Clas...</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.00%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.6M</t>
+          <t>9.3M</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>$2.6B</t>
+          <t>$630.2M</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>--</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Micron Technology Inc</t>
+          <t>Coca-Cola Europacific Partners PLC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.24%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20.7M</t>
+          <t>8.5M</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>$2.5B</t>
+          <t>$626.4M</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>BKR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Intel Corp</t>
+          <t>Baker Hughes Co Class A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>0.23%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>79.1M</t>
+          <t>18.7M</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>$2.4B</t>
+          <t>$601.8M</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HON</t>
+          <t>BIIB</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Honeywell International Inc</t>
+          <t>Biogen Inc</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.23%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12.2M</t>
+          <t>2.7M</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>$2.4B</t>
+          <t>$595.4M</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>CDW</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Booking Holdings Inc</t>
+          <t>CDW Corp</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.90%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>639.3K</t>
+          <t>2.5M</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>$2.3B</t>
+          <t>$554.2M</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lam Research Corp</t>
+          <t>ON Semiconductor Corp</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.87%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.5M</t>
+          <t>8.0M</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>$2.2B</t>
+          <t>$566.0M</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>XEL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vertex Pharmaceuticals Inc</t>
+          <t>Xcel Energy Inc</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.77%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.8M</t>
+          <t>10.4M</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>$2.0B</t>
+          <t>$571.5M</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>GFS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Regeneron Pharmaceuticals Inc</t>
+          <t>GLOBALFOUNDRIES Inc</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.76%</t>
+          <t>0.21%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.0M</t>
+          <t>10.2M</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>$2.0B</t>
+          <t>$545.8M</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>TEAM</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Analog Devices Inc</t>
+          <t>Atlassian Corp A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.74%</t>
+          <t>0.21%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9.3M</t>
+          <t>2.9M</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>$1.9B</t>
+          <t>$541.3M</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>ANSS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Automatic Data Processing Inc</t>
+          <t>Ansys Inc</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>0.21%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7.7M</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>$1.9B</t>
+          <t>$529.2M</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>MDB</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Palo Alto Networks Inc</t>
+          <t>MongoDB Inc Class A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6.0M</t>
+          <t>1.4M</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>$1.8B</t>
+          <t>$480.7M</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MDLZ</t>
+          <t>DLTR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mondelez International Inc Class A</t>
+          <t>Dollar Tree Inc</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.70%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>25.2M</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>$1.8B</t>
+          <t>$496.0M</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>KLA Corp</t>
+          <t>Zscaler Inc</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.70%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.5M</t>
+          <t>2.8M</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>$1.8B</t>
+          <t>$490.9M</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>TTWO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PDD Holdings Inc ADR</t>
+          <t>Take-Two Interactive Software Inc</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.67%</t>
+          <t>0.18%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12.5M</t>
+          <t>3.2M</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>$1.7B</t>
+          <t>$473.4M</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MercadoLibre Inc</t>
+          <t>Warner Bros. Discovery Inc Ordinary Shar...</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>0.14%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>948.5K</t>
+          <t>45.6M</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>$1.6B</t>
+          <t>$354.7M</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>ILMN</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Synopsys Inc</t>
+          <t>Illumina Inc</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.9M</t>
+          <t>3.0M</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>$1.6B</t>
+          <t>$335.4M</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Starbucks Corp</t>
+          <t>Walgreens Boots Alliance Inc</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.60%</t>
+          <t>0.11%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>21.2M</t>
+          <t>16.1M</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>$1.5B</t>
+          <t>$279.9M</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>SIRI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gilead Sciences Inc</t>
+          <t>Sirius XM Holdings Inc</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.59%</t>
+          <t>0.09%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>23.3M</t>
+          <t>71.9M</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>$1.5B</t>
+          <t>$225.0M</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ASML</t>
+          <t>--</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASML Holding NV ADR</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.57%</t>
+          <t>0.09%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.6M</t>
+          <t>241.6M</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>$1.5B</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>CDNS</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Cadence Design Systems Inc</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0.56%</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>5.1M</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>$1.4B</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>CRWD</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>CrowdStrike Holdings Inc Class A</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>4.3M</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>$1.3B</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>PYPL</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>PayPal Holdings Inc</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>20.1M</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>$1.3B</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>CTAS</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Cintas Corp</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>0.51%</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.9M</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>$1.3B</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ABNB</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Airbnb Inc Ordinary Shares - Class A</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>0.51%</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>8.2M</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>$1.3B</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>MAR</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Marriott International Inc Class A</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>0.50%</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>5.4M</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>$1.3B</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>CSX</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>CSX Corp</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>0.49%</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>36.7M</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>$1.2B</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>NXPI</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>NXP Semiconductors NV</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>0.48%</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>4.8M</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>$1.2B</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>CEG</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Constellation Energy Corp</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>0.46%</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>5.9M</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>$1.2B</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>ORLY</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>O'Reilly Automotive Inc</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.1M</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>$1.1B</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>MRVL</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Marvell Technology Inc</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>0.43%</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>16.2M</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>$1.1B</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>PCAR</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>PACCAR Inc</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>0.41%</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>9.8M</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>$1.0B</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>MNST</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Monster Beverage Corp</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>0.41%</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>19.5M</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>$1.1B</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>ROP</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Roper Technologies Inc</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>0.41%</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2.0M</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>$1.0B</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>CPRT</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Copart Inc</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>0.39%</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>18.0M</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>$1.0B</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>WDAY</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Workday Inc Class A</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>3.9M</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>$975.3M</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>DXCM</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>DexCom Inc</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>0.37%</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>7.2M</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>$938.4M</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MCHP</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Microchip Technology Inc</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>0.36%</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>10.1M</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>$930.8M</t>
+          <t>$241.6M</t>
         </is>
       </c>
     </row>
